--- a/OnlineRetailApplication/resources/testdata/TestData.xlsx
+++ b/OnlineRetailApplication/resources/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="2760"/>
+    <workbookView windowWidth="16245" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>product name</t>
   </si>
@@ -29,18 +29,39 @@
     <t>product quantity</t>
   </si>
   <si>
+    <t>product total</t>
+  </si>
+  <si>
     <t>BLACK LUX GRAPHIC T-SHIRT</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
     <t>PINK DROP SHOULDER OVERSIZED T SHIRT</t>
   </si>
   <si>
     <t>Pink</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
     <t>TOKYO TALKIES</t>
   </si>
   <si>
@@ -54,6 +75,9 @@
   </si>
   <si>
     <t>Small</t>
+  </si>
+  <si>
+    <t>CART</t>
   </si>
 </sst>
 </file>
@@ -61,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,16 +99,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,6 +129,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -106,9 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,9 +204,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,87 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -228,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +443,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,23 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,39 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -524,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,130 +566,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -674,6 +698,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,15 +1025,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,61 +1049,75 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/OnlineRetailApplication/resources/testdata/TestData.xlsx
+++ b/OnlineRetailApplication/resources/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="4800"/>
+    <workbookView windowWidth="16245" windowHeight="3150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +99,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,15 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,108 +123,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,6 +137,111 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,6 +252,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,180 +433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,8 +448,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -459,7 +461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,21 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -533,13 +520,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,15 +548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,130 +566,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1094,7 +1094,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1108,7 +1108,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
